--- a/REGULAR/RE-ENCODE/re encode/PEREY, AIRENE.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/PEREY, AIRENE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>5/4,5/2023</t>
+  </si>
+  <si>
+    <t>6/20,27/2023</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K149" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1314,12 +1317,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K148"/>
+  <dimension ref="A2:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A95" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
+      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1491,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>101.292</v>
+        <v>98.292000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3494,25 +3497,28 @@
       <c r="A100" s="40">
         <v>45078</v>
       </c>
-      <c r="B100" s="20"/>
+      <c r="B100" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="39"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="39">
+        <v>1</v>
+      </c>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="49">
+        <v>45077</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B101" s="20"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
@@ -3521,14 +3527,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H101" s="39"/>
+      <c r="H101" s="39">
+        <v>2</v>
+      </c>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="49" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3546,7 +3556,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3564,7 +3574,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3582,7 +3592,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3600,7 +3610,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3618,7 +3628,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3636,7 +3646,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3654,7 +3664,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3672,7 +3682,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3690,7 +3700,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3708,7 +3718,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3726,7 +3736,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3744,7 +3754,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3762,7 +3772,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3780,7 +3790,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3798,7 +3808,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3816,7 +3826,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3834,7 +3844,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3852,7 +3862,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3870,7 +3880,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3888,7 +3898,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3906,7 +3916,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3924,7 +3934,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3942,7 +3952,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3960,7 +3970,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3978,7 +3988,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3996,7 +4006,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4014,7 +4024,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4032,7 +4042,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4050,7 +4060,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4068,7 +4078,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4086,7 +4096,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4104,7 +4114,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4122,7 +4132,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4140,7 +4150,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4158,7 +4168,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4176,7 +4186,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4194,7 +4204,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4212,7 +4222,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4230,7 +4240,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4248,7 +4258,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4266,7 +4276,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4284,7 +4294,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4302,7 +4312,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4320,7 +4330,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4338,7 +4348,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4355,20 +4365,38 @@
       <c r="K147" s="20"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="41"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="43"/>
+      <c r="A148" s="40">
+        <v>46508</v>
+      </c>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H148" s="43"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
       <c r="I148" s="9"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="15"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="41"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="42"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="43"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/RE-ENCODE/re encode/PEREY, AIRENE.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/PEREY, AIRENE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7462B7-4D8D-400F-AAF5-08A97F9CE720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -299,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -971,7 +972,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -988,25 +989,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K149" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K150" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1313,34 +1314,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K149"/>
+  <dimension ref="A2:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A95" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A95" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
+      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1362,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1379,7 +1380,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1399,7 +1400,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1407,7 +1408,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1420,7 +1421,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1437,7 +1438,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1481,7 +1482,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>125.474</v>
+        <v>127.974</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1491,12 +1492,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>98.292000000000002</v>
+        <v>99.542000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1518,7 +1519,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1538,7 +1539,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>47</v>
@@ -1659,7 +1660,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>43269</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>47</v>
@@ -1702,7 +1703,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43313</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
@@ -1771,7 +1772,7 @@
         <v>43367</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -1791,7 +1792,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43374</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43405</v>
       </c>
@@ -1837,7 +1838,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43435</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -1880,7 +1881,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>51</v>
       </c>
@@ -1898,7 +1899,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43466</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>55</v>
@@ -1943,7 +1944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>56</v>
@@ -1962,7 +1963,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43497</v>
       </c>
@@ -1982,7 +1983,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43525</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43556</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43586</v>
       </c>
@@ -2054,7 +2055,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43617</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>43622</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>47</v>
@@ -2097,7 +2098,7 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>47</v>
@@ -2114,7 +2115,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43647</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43678</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43709</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -2211,7 +2212,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43739</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>45</v>
@@ -2256,7 +2257,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43770</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43800</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
         <v>65</v>
       </c>
@@ -2326,7 +2327,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43831</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>46</v>
@@ -2369,7 +2370,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43862</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43891</v>
       </c>
@@ -2415,7 +2416,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43922</v>
       </c>
@@ -2435,7 +2436,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43952</v>
       </c>
@@ -2455,7 +2456,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43983</v>
       </c>
@@ -2475,7 +2476,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44013</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>45</v>
@@ -2518,7 +2519,7 @@
         <v>44041</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44044</v>
       </c>
@@ -2538,7 +2539,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44075</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44105</v>
       </c>
@@ -2584,7 +2585,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44136</v>
       </c>
@@ -2604,7 +2605,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44166</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>44176</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>69</v>
@@ -2650,7 +2651,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>71</v>
       </c>
@@ -2668,7 +2669,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44197</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44228</v>
       </c>
@@ -2714,7 +2715,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44256</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44287</v>
       </c>
@@ -2760,7 +2761,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44317</v>
       </c>
@@ -2780,7 +2781,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44348</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
@@ -2823,7 +2824,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44378</v>
       </c>
@@ -2849,7 +2850,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44409</v>
       </c>
@@ -2869,7 +2870,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44440</v>
       </c>
@@ -2889,7 +2890,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44470</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>44502</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44501</v>
       </c>
@@ -2935,7 +2936,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44531</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>74</v>
       </c>
@@ -2979,7 +2980,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44562</v>
       </c>
@@ -2999,7 +3000,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44593</v>
       </c>
@@ -3019,7 +3020,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44621</v>
       </c>
@@ -3039,7 +3040,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44652</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44682</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>47</v>
@@ -3109,7 +3110,7 @@
         <v>44747</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44713</v>
       </c>
@@ -3129,7 +3130,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44743</v>
       </c>
@@ -3149,7 +3150,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44774</v>
       </c>
@@ -3169,7 +3170,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44805</v>
       </c>
@@ -3189,7 +3190,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44835</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>45</v>
@@ -3235,7 +3236,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>45</v>
@@ -3257,7 +3258,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44866</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44896</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>79</v>
       </c>
@@ -3323,7 +3324,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44927</v>
       </c>
@@ -3347,7 +3348,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>45</v>
@@ -3369,7 +3370,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44958</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>48</v>
@@ -3417,7 +3418,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>44986</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45017</v>
       </c>
@@ -3469,20 +3470,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45047</v>
       </c>
       <c r="B99" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39">
         <v>2</v>
@@ -3493,14 +3496,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45078</v>
       </c>
       <c r="B100" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
@@ -3514,7 +3519,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>48</v>
@@ -3536,11 +3541,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B102" s="20"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40"/>
+      <c r="B102" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
@@ -3552,11 +3557,13 @@
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="49">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3572,9 +3579,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3590,9 +3597,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3608,9 +3615,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3626,9 +3633,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3644,9 +3651,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3662,9 +3669,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3680,9 +3687,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3698,9 +3705,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3716,9 +3723,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3734,9 +3741,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3752,9 +3759,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3770,9 +3777,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3788,9 +3795,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3806,9 +3813,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3824,9 +3831,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3842,9 +3849,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3860,9 +3867,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3878,9 +3885,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3896,9 +3903,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3914,9 +3921,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3932,9 +3939,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3950,9 +3957,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3968,9 +3975,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3986,9 +3993,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4004,9 +4011,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4022,9 +4029,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4040,9 +4047,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4058,9 +4065,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4076,9 +4083,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4094,9 +4101,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4112,9 +4119,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4130,9 +4137,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4148,9 +4155,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4166,9 +4173,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4184,9 +4191,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4202,9 +4209,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4220,9 +4227,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4238,9 +4245,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4256,9 +4263,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4274,9 +4281,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4292,9 +4299,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4310,9 +4317,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4328,9 +4335,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4346,9 +4353,9 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4364,9 +4371,9 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4382,21 +4389,39 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="41"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="43"/>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="40">
+        <v>46508</v>
+      </c>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H149" s="43"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="39"/>
       <c r="I149" s="9"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="15"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="41"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="42"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="43"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4413,10 +4438,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4439,28 +4464,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -4473,7 +4498,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4502,7 +4527,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>79.474000000000004</v>
       </c>
@@ -4526,17 +4551,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4557,7 +4582,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4584,7 +4609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4610,7 +4635,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4636,7 +4661,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4662,7 +4687,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4688,7 +4713,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4714,7 +4739,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4740,7 +4765,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4766,7 +4791,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4786,7 +4811,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4806,7 +4831,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4826,7 +4851,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4847,7 +4872,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4868,7 +4893,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4889,7 +4914,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4910,7 +4935,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4931,7 +4956,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4952,7 +4977,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4973,7 +4998,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4994,7 +5019,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5015,7 +5040,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5036,7 +5061,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5057,7 +5082,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5078,7 +5103,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5099,7 +5124,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5120,7 +5145,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5141,7 +5166,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5162,7 +5187,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5183,7 +5208,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5204,7 +5229,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5225,7 +5250,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5246,7 +5271,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5255,7 +5280,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5264,7 +5289,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5273,7 +5298,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5282,7 +5307,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5291,7 +5316,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5300,7 +5325,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5309,7 +5334,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5318,7 +5343,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5327,7 +5352,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5336,7 +5361,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5345,7 +5370,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5354,7 +5379,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5363,7 +5388,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5372,7 +5397,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5381,7 +5406,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5390,7 +5415,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5399,7 +5424,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5408,7 +5433,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5417,7 +5442,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5426,7 +5451,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5435,7 +5460,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5444,7 +5469,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5453,7 +5478,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5462,7 +5487,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5471,7 +5496,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5480,7 +5505,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5489,7 +5514,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5498,7 +5523,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5507,7 +5532,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
